--- a/forumlist.xlsx
+++ b/forumlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11988" windowHeight="6348" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,186 +19,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+  <x:si>
+    <x:t>obj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>verifier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>levelname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trinitic Circles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SW222222222222222NG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Midnight Verdant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>blekupen circles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vinyl3141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mobile64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CloudMist</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GDNewHippo </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThisIsNaGMD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yeo Baek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mind Note</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no escape</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calm Down</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aiden1204</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">chobo111 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>용러</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태여이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JMG3121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blebae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InfoS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lucent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cojong</x:t>
+  </x:si>
   <x:si>
     <x:t>Habon</x:t>
   </x:si>
   <x:si>
-    <x:t>JMG3121</x:t>
+    <x:t xml:space="preserve">InfoS </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toybox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hatblue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spoike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GENESIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cesc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inti98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JMG3141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tels</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">DIA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/PAEA0nSfMLg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ZIm8gFp507s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/DWCOTtI0Al4</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/XBt7Xq1Z7AU</x:t>
   </x:si>
   <x:si>
+    <x:t>https://youtu.be/k-9_WIZX1Lc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/xOszUkXTTbQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/bRtzldVCS84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/s_Ytr9TUe1I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/EvJPOyc1GBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/-Va877PcCes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/8Mjzl_m_2Ik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/AvBB4ZpkXRc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Pr6A8Bo9Q9E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/GR0rVY9tlyk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/lbRNhiYyIk4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/sMfAPo7KoTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/VId1t16gSD0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/BXMka_2bOBo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/lhKnsRrK0C8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/uYG9rN2DZGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONSKRUMA ALONG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sh challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hell Dimension</x:t>
+  </x:si>
+  <x:si>
     <x:t>Koriyaman123</x:t>
   </x:si>
   <x:si>
-    <x:t>Blebae</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/ZIm8gFp507s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MONSKRUMA ALONG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blekupen circles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/DWCOTtI0Al4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hell Dimension</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sh challenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GDNewHippo </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/PAEA0nSfMLg</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">InfoS </x:t>
-  </x:si>
-  <x:si>
-    <x:t>vinyl3141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InfoS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CloudMist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mobile64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sandfire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/k-9_WIZX1Lc</x:t>
+    <x:t>Cyclic, Tels</x:t>
   </x:si>
   <x:si>
     <x:t>telsonic wave</x:t>
   </x:si>
   <x:si>
-    <x:t>용러</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태여이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cojong</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trinitic Circles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/bRtzldVCS84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lucent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inti98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GENESIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JMG3141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hatblue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spoike</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cesc</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DIA </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Toybox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/-Va877PcCes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yeo Baek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aiden1204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/8Mjzl_m_2Ik</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThisIsNaGMD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Calm Down</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no escape</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/xOszUkXTTbQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SW222222222222222NG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/s_Ytr9TUe1I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cyclic, Tels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/EvJPOyc1GBA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/VId1t16gSD0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/lhKnsRrK0C8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mind Note</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/GR0rVY9tlyk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Midnight Verdant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/Pr6A8Bo9Q9E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/uYG9rN2DZGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/lbRNhiYyIk4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/sMfAPo7KoTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">chobo111 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/AvBB4ZpkXRc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/BXMka_2bOBo</x:t>
+    <x:t>link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>length</x:t>
+  </x:si>
+  <x:si>
+    <x:t>creater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>levelid</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -282,13 +306,16 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="6">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -297,8 +324,17 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -307,7 +343,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -390,7 +425,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -425,7 +459,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -470,7 +503,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -514,7 +546,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -599,7 +630,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -620,7 +650,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -651,7 +680,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1017,10 +1045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:E20"/>
+  <x:dimension ref="A1:H21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E22" activeCellId="0" sqref="E22:E22"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J5" activeCellId="0" sqref="J5:J5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1030,372 +1058,462 @@
     <x:col min="3" max="3" width="14.6015625" customWidth="1"/>
     <x:col min="4" max="4" width="10.6015625" customWidth="1"/>
     <x:col min="5" max="5" width="26.3984375" customWidth="1"/>
+    <x:col min="6" max="6" width="13.69921875" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>15</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D1">
+      <x:c r="D1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D2">
         <x:v>109039996</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D2">
+      <x:c r="E2" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F2" s="5">
+        <x:v>45518</x:v>
+      </x:c>
+      <x:c r="G2" s="4">
+        <x:v>0.022222222222222223</x:v>
+      </x:c>
+      <x:c r="H2" s="3">
+        <x:v>2458</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3">
         <x:v>112437156</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>113336301</x:v>
-      </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F3" s="5">
+        <x:v>45620</x:v>
+      </x:c>
+      <x:c r="G3" s="4">
+        <x:v>0.034722222222222224</x:v>
+      </x:c>
+      <x:c r="H3" s="3">
+        <x:v>1262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
       <x:c r="A4" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B4" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D4">
+        <x:v>113336301</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F4" s="5">
+        <x:v>45648</x:v>
+      </x:c>
+      <x:c r="G4" s="4">
+        <x:v>0.049305555555555554</x:v>
+      </x:c>
+      <x:c r="H4" s="3">
+        <x:v>26598</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5">
         <x:v>102575800</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D5">
+      <x:c r="E5" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F5" s="5">
+        <x:v>45368</x:v>
+      </x:c>
+      <x:c r="G5" s="4">
+        <x:v>0.05</x:v>
+      </x:c>
+      <x:c r="H5" s="3">
+        <x:v>15933</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D6">
         <x:v>97227131</x:v>
       </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C6" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D6">
+      <x:c r="E6" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F6" s="5">
+        <x:v>45270</x:v>
+      </x:c>
+      <x:c r="G6" s="4">
+        <x:v>0.060416666666666667</x:v>
+      </x:c>
+      <x:c r="H6" s="3">
+        <x:v>24000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D7">
         <x:v>110267475</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D7">
+      <x:c r="E7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F7" s="5">
+        <x:v>45553</x:v>
+      </x:c>
+      <x:c r="G7" s="4">
+        <x:v>0.017361111111111112</x:v>
+      </x:c>
+      <x:c r="H7" s="3">
+        <x:v>7466</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D8">
         <x:v>113106234</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D8">
-        <x:v>110826923</x:v>
-      </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F8" s="5">
+        <x:v>45641</x:v>
+      </x:c>
+      <x:c r="G8" s="4">
+        <x:v>0.04791666666666667</x:v>
+      </x:c>
+      <x:c r="H8" s="3">
+        <x:v>24166</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" t="s">
-        <x:v>50</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D9">
-        <x:v>106326896</x:v>
+        <x:v>110826923</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D10">
-        <x:v>112441601</x:v>
+        <x:v>106326896</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" t="s">
-        <x:v>33</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>22</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D11">
+        <x:v>112441601</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D12">
         <x:v>109138810</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5" s="2" customFormat="1">
-      <x:c r="A12" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D12" s="2">
+      <x:c r="E12" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5" s="2" customFormat="1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D13" s="2">
         <x:v>97883413</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D13">
-        <x:v>106531703</x:v>
-      </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" t="s">
-        <x:v>41</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>40</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D14">
-        <x:v>109445344</x:v>
+        <x:v>106531703</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" t="s">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D15">
-        <x:v>110114584</x:v>
+        <x:v>109445344</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D16">
-        <x:v>109701039</x:v>
+        <x:v>110114584</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" t="s">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D17">
-        <x:v>109287798</x:v>
+        <x:v>109701039</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" t="s">
-        <x:v>10</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>34</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>34</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D18">
-        <x:v>110265723</x:v>
+        <x:v>109287798</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D19">
+        <x:v>110265723</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="B19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C19" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19">
-        <x:v>108229163</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B20" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="C20" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D20">
+        <x:v>108229163</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D21">
         <x:v>111537889</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>59</x:v>
+      <x:c r="E21" s="1" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E3:E3" r:id="rId1"/>
-    <x:hyperlink ref="E4:E4" r:id="rId2"/>
-    <x:hyperlink ref="E5:E5" r:id="rId3"/>
-    <x:hyperlink ref="E6:E6" r:id="rId4"/>
-    <x:hyperlink ref="E7:E7" r:id="rId5"/>
-    <x:hyperlink ref="E8:E8" r:id="rId6"/>
-    <x:hyperlink ref="E9:E9" r:id="rId7"/>
-    <x:hyperlink ref="E10:E10" r:id="rId8"/>
-    <x:hyperlink ref="E11:E11" r:id="rId9"/>
-    <x:hyperlink ref="E12:E12" r:id="rId10"/>
-    <x:hyperlink ref="E13:E13" r:id="rId11"/>
-    <x:hyperlink ref="E15:E15" r:id="rId12"/>
-    <x:hyperlink ref="E16:E16" r:id="rId13"/>
-    <x:hyperlink ref="E18:E18" r:id="rId14"/>
-    <x:hyperlink ref="E14:E14" r:id="rId15"/>
-    <x:hyperlink ref="E19:E19" r:id="rId16"/>
-    <x:hyperlink ref="E17:E17" r:id="rId17"/>
-    <x:hyperlink ref="E1:E1" r:id="rId18"/>
-    <x:hyperlink ref="E2:E2" r:id="rId19"/>
-    <x:hyperlink ref="E20:E20" r:id="rId20"/>
+    <x:hyperlink ref="E4:E4" r:id="rId1"/>
+    <x:hyperlink ref="E5:E5" r:id="rId2"/>
+    <x:hyperlink ref="E6:E6" r:id="rId3"/>
+    <x:hyperlink ref="E7:E7" r:id="rId4"/>
+    <x:hyperlink ref="E8:E8" r:id="rId5"/>
+    <x:hyperlink ref="E9:E9" r:id="rId6"/>
+    <x:hyperlink ref="E10:E10" r:id="rId7"/>
+    <x:hyperlink ref="E11:E11" r:id="rId8"/>
+    <x:hyperlink ref="E12:E12" r:id="rId9"/>
+    <x:hyperlink ref="E13:E13" r:id="rId10"/>
+    <x:hyperlink ref="E14:E14" r:id="rId11"/>
+    <x:hyperlink ref="E16:E16" r:id="rId12"/>
+    <x:hyperlink ref="E17:E17" r:id="rId13"/>
+    <x:hyperlink ref="E19:E19" r:id="rId14"/>
+    <x:hyperlink ref="E15:E15" r:id="rId15"/>
+    <x:hyperlink ref="E20:E20" r:id="rId16"/>
+    <x:hyperlink ref="E18:E18" r:id="rId17"/>
+    <x:hyperlink ref="E2:E2" r:id="rId18"/>
+    <x:hyperlink ref="E3:E3" r:id="rId19"/>
+    <x:hyperlink ref="E21:E21" r:id="rId20"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/forumlist.xlsx
+++ b/forumlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11988" windowHeight="6348" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <x:si>
     <x:t>obj</x:t>
   </x:si>
@@ -217,6 +217,9 @@
   </x:si>
   <x:si>
     <x:t>length</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngid</x:t>
   </x:si>
   <x:si>
     <x:t>creater</x:t>
@@ -1045,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H21"/>
+  <x:dimension ref="A1:I21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J5" activeCellId="0" sqref="J5:J5"/>
+    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I1" activeCellId="0" sqref="I1:I1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1061,18 +1064,18 @@
     <x:col min="6" max="6" width="13.69921875" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C1" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E1" t="s">
         <x:v>63</x:v>
@@ -1085,6 +1088,9 @@
       </x:c>
       <x:c r="H1" t="s">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="I1" t="s">
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">

--- a/forumlist.xlsx
+++ b/forumlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11988" windowHeight="6348" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15564" windowHeight="6348" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -1050,8 +1050,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:I21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I1" activeCellId="0" sqref="I1:I1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B5" activeCellId="0" sqref="B5:B5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>

--- a/forumlist.xlsx
+++ b/forumlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15564" windowHeight="6348" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="8088" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,220 +19,769 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="251">
+  <x:si>
+    <x:t>YoonGi Challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>how to gameplay 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GDNewHIPPO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kana Arima</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhdydwns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hello  hell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plz hae jwo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI Hoshino</x:t>
+  </x:si>
+  <x:si>
+    <x:t>waterdrop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spacematter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oatur Surix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PIZZA1980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daydream</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quack Forum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seongyunp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unnamed 236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ok1972,니나노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>starmate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skyturtle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spotlight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tetris09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ufo dance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>really easy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uping Fall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smart Boy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>taemin0206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloodmoment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Just Finale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>once again</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태여이,OroxyKR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KRyechan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Krmal,니나노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KRlaw,태여이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>H Challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>verifier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yeo Baek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no escape</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThisIsNaGMD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Showdown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>chobo111</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GDNewHippo </x:t>
+  </x:si>
+  <x:si>
+    <x:t>WuniWave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mind Note</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mobile64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CloudMist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aiden1204</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">chobo111 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>levelname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vinyl3141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Calm Down</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandfire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>blekupen circles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024nyon e do Solk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No sink challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suneung Challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/yIqIQLCBBfI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/dub14MVB44o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/RsTBjEZ5-Bw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crazy Bear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Death Widow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unnamed 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rangk,니나노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tan San Soo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>allsyou12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Private Way</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Happy Day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noobas,태여이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-----플랫포머 리스트-----</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xo wave challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frame hell penale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eyes in the penalus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rustam,llrell,니나노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>covald challenge 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hayang challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crazy Bear Buffed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-----스팸 리스트-----</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mklv challenge end</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Penalus challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elelelelelelelebus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gd practice basic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-----암기 리스트-----</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wunigd challengg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plasma Platformer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/EKGZkXxgtQk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/8W1AqF3DYd0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Machina Challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>i i i in my part</x:t>
+  </x:si>
+  <x:si>
+    <x:t>krushgirl challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Midnight Verdant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>goqual maaaaaaaaaaa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>celebrity fix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/NkkAVqoTL1o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hard memorizing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>verylongername</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boramae Dance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ship challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quack Forum,니나노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hell Dimension</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koriyaman123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soboro my part</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELELELE buff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weoweoteo,니나노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54387fu0vdxbt6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quack Forum,하양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhdydwns,Robtop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sh challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sanix wave ii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ultramicroton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bluesapphire666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONSKRUMA ALONG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pdslay3r,lim777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wave difficult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fenrrig,OroxyKR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I hate Or0xy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cyclic, Tels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>telsonic wave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>useless hitbox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Critical meow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AoD Challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>past universe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4x challenge 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vs 2c finish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>i hate Finale X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>니나노,Quack Forum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vs 2c unnerfed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dap Dyu Dyu infidyu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oroxy never clear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNNERFED Crazy Bear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1e2e4tdkfk43l233k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casj3cAs6354fHafDS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tidal wave startpos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>old layout penale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iiimintiii,Kansha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pokemon master buff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>only spider layout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMPOSSIBLE TIMING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWIIIIIIIIIIIIIIING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nenells was my part</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nieolgul Hayang Kim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quack Forum,hy12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trinitic Circles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SW222222222222222NG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhdydwns's cousin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spike challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>God Wave Penale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 or 3 stars</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하양</x:t>
+  </x:si>
   <x:si>
     <x:t>obj</x:t>
   </x:si>
   <x:si>
-    <x:t>verifier</x:t>
-  </x:si>
-  <x:si>
-    <x:t>levelname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trinitic Circles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SW222222222222222NG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Midnight Verdant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>blekupen circles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vinyl3141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mobile64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CloudMist</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GDNewHippo </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sandfire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThisIsNaGMD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yeo Baek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mind Note</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no escape</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Calm Down</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aiden1204</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">chobo111 </x:t>
+    <x:t>니나노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태여이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CH</x:t>
   </x:si>
   <x:si>
     <x:t>용러</x:t>
   </x:si>
   <x:si>
-    <x:t>태여이</x:t>
+    <x:t>tutist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GENESIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JMG3141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spoike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tels</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cesc</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">DIA </x:t>
+  </x:si>
+  <x:si>
+    <x:t>InfoS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lim777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hatblue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cojong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TULUFUT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VESC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kansha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blebae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ngid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hell 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wunigd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OroxyKR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nsopike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inti98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toybox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lucy77m</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">InfoS </x:t>
   </x:si>
   <x:si>
     <x:t>JMG3121</x:t>
   </x:si>
   <x:si>
-    <x:t>Blebae</x:t>
-  </x:si>
-  <x:si>
-    <x:t>InfoS</x:t>
-  </x:si>
-  <x:si>
     <x:t>Lucent</x:t>
   </x:si>
   <x:si>
-    <x:t>Cojong</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habon</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">InfoS </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Toybox</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hatblue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spoike</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GENESIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cesc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>inti98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JMG3141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tels</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">DIA </x:t>
+    <x:t>link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>creater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Classic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>levelid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hy12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>icicle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lol 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALT F6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>length</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arcylic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sawert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zhelv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노란딱지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>desc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Solk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PerainX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SnowGDk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>unnamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dap Dyu Dyu Dyu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ZIm8gFp507s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/XBt7Xq1Z7AU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/xOszUkXTTbQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/8Mjzl_m_2Ik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/DWCOTtI0Al4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/-Va877PcCes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/bRtzldVCS84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/lhKnsRrK0C8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/EvJPOyc1GBA</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/PAEA0nSfMLg</x:t>
   </x:si>
   <x:si>
-    <x:t>https://youtu.be/ZIm8gFp507s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/DWCOTtI0Al4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/XBt7Xq1Z7AU</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://youtu.be/k-9_WIZX1Lc</x:t>
   </x:si>
   <x:si>
-    <x:t>https://youtu.be/xOszUkXTTbQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/bRtzldVCS84</x:t>
+    <x:t>https://youtu.be/uYG9rN2DZGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/sMfAPo7KoTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/BXMka_2bOBo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/VId1t16gSD0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Pr6A8Bo9Q9E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/lbRNhiYyIk4</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/s_Ytr9TUe1I</x:t>
   </x:si>
   <x:si>
-    <x:t>https://youtu.be/EvJPOyc1GBA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/-Va877PcCes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/8Mjzl_m_2Ik</x:t>
+    <x:t>https://youtu.be/GR0rVY9tlyk</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/AvBB4ZpkXRc</x:t>
   </x:si>
   <x:si>
-    <x:t>https://youtu.be/Pr6A8Bo9Q9E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/GR0rVY9tlyk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/lbRNhiYyIk4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/sMfAPo7KoTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/VId1t16gSD0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/BXMka_2bOBo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/lhKnsRrK0C8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://youtu.be/uYG9rN2DZGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MONSKRUMA ALONG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sh challenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hell Dimension</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koriyaman123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cyclic, Tels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>telsonic wave</x:t>
-  </x:si>
-  <x:si>
-    <x:t>link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>length</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ngid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>creater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>levelid</x:t>
+    <x:t>original nenells par</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eyes in the tmxmfnls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dap Dyu Dyu RebirDyu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shitty BOF mini buff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sakupen hell spam ne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>니나노,Quack Forum,GGboy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mingmo never clear 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quack Forum,dhdydwns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bangnical Depression</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNNERFED AoD Challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fingerdash swag buff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cyberconxteuct tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R2ND0M T3RR1BLE T0U8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omg bongus chlmancha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shitty BOF mini wave</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/goRcvaZYDRM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Yq93e5NGeD4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/wL654R0Suvk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/5m5qfjMyRJs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/TkYRekJJPpU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/wHJF83-j4G8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/qP7Zb_dGya4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/m8dTAoEjaR0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/-LLAbE7j0-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/FDoGLeoirds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/Ub3ymD1FvkI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/WYcDaZauArg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/gMQ8mUBzK6E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/ZZjiWILSKnY</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="7">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
+  </x:numFmts>
+  <x:fonts count="9">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -260,6 +809,32 @@
     </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Malgun Gothic"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Malgun Gothic"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
@@ -317,28 +892,52 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+  <x:cellXfs count="14">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <x:xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <x:xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
-    <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1048,478 +1647,2312 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:I21"/>
+  <x:dimension ref="A1:K142"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B5" activeCellId="0" sqref="B5:B5"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F39" activeCellId="0" sqref="F39:F39"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
   <x:cols>
     <x:col min="1" max="1" width="22" customWidth="1"/>
-    <x:col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <x:col min="3" max="3" width="14.6015625" customWidth="1"/>
-    <x:col min="4" max="4" width="10.6015625" customWidth="1"/>
-    <x:col min="5" max="5" width="26.3984375" customWidth="1"/>
-    <x:col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <x:col min="2" max="2" width="15.56640625" customWidth="1"/>
+    <x:col min="3" max="3" width="16" customWidth="1"/>
+    <x:col min="4" max="4" width="13.56640625" customWidth="1"/>
+    <x:col min="5" max="5" width="30.56640625" customWidth="1"/>
+    <x:col min="6" max="6" width="13.70703125" customWidth="1"/>
+    <x:col min="7" max="8" width="8.859375" customWidth="1"/>
+    <x:col min="9" max="9" width="10.859375" customWidth="1"/>
+    <x:col min="10" max="11" width="8.859375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A1" t="s">
-        <x:v>2</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>67</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>68</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>63</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F1" t="s">
-        <x:v>64</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G1" t="s">
-        <x:v>65</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H1" t="s">
-        <x:v>0</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A2" t="s">
-        <x:v>28</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>23</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>21</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D2">
         <x:v>109039996</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F2" s="5">
+      <x:c r="E2" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="F2" s="3">
         <x:v>45518</x:v>
       </x:c>
       <x:c r="G2" s="4">
         <x:v>0.022222222222222223</x:v>
       </x:c>
-      <x:c r="H2" s="3">
+      <x:c r="H2" s="5">
         <x:v>2458</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
+      <x:c r="I2" s="1">
+        <x:v>1152826</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A3" t="s">
-        <x:v>6</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>22</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>22</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D3">
         <x:v>112437156</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F3" s="5">
+      <x:c r="E3" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="F3" s="3">
         <x:v>45620</x:v>
       </x:c>
       <x:c r="G3" s="4">
         <x:v>0.034722222222222224</x:v>
       </x:c>
-      <x:c r="H3" s="3">
+      <x:c r="H3" s="5">
         <x:v>1262</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
+      <x:c r="I3" s="1">
+        <x:v>360804</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A4" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>17</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>7</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D4">
         <x:v>113336301</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F4" s="5">
+      <x:c r="E4" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="F4" s="3">
         <x:v>45648</x:v>
       </x:c>
       <x:c r="G4" s="4">
         <x:v>0.049305555555555554</x:v>
       </x:c>
-      <x:c r="H4" s="3">
+      <x:c r="H4" s="5">
         <x:v>26598</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
+      <x:c r="I4" s="1">
+        <x:v>768489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A5" t="s">
-        <x:v>9</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D5">
         <x:v>102575800</x:v>
       </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F5" s="5">
+      <x:c r="E5" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="F5" s="3">
         <x:v>45368</x:v>
       </x:c>
       <x:c r="G5" s="4">
         <x:v>0.05</x:v>
       </x:c>
-      <x:c r="H5" s="3">
+      <x:c r="H5" s="5">
         <x:v>15933</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
+      <x:c r="I5" s="1">
+        <x:v>1101957</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A6" t="s">
-        <x:v>26</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D6">
         <x:v>97227131</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F6" s="5">
+      <x:c r="E6" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F6" s="3">
         <x:v>45270</x:v>
       </x:c>
       <x:c r="G6" s="4">
         <x:v>0.060416666666666667</x:v>
       </x:c>
-      <x:c r="H6" s="3">
+      <x:c r="H6" s="5">
         <x:v>24000</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
+      <x:c r="I6" s="1">
+        <x:v>949411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A7" t="s">
-        <x:v>59</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>30</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D7">
         <x:v>110267475</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F7" s="5">
+      <x:c r="E7" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="F7" s="3">
         <x:v>45553</x:v>
       </x:c>
       <x:c r="G7" s="4">
         <x:v>0.017361111111111112</x:v>
       </x:c>
-      <x:c r="H7" s="3">
+      <x:c r="H7" s="5">
         <x:v>7466</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
+      <x:c r="I7" s="6">
+        <x:v>709578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A8" t="s">
-        <x:v>31</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>60</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>60</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D8">
         <x:v>113106234</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F8" s="5">
+      <x:c r="E8" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="F8" s="3">
         <x:v>45641</x:v>
       </x:c>
       <x:c r="G8" s="4">
         <x:v>0.04791666666666667</x:v>
       </x:c>
-      <x:c r="H8" s="3">
+      <x:c r="H8" s="5">
         <x:v>24166</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
+      <x:c r="I8" s="6">
+        <x:v>1307278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A9" t="s">
-        <x:v>24</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>33</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>33</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D9">
         <x:v>110826923</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
+      <x:c r="E9" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="F9" s="7">
+        <x:v>45570</x:v>
+      </x:c>
+      <x:c r="G9" s="8">
+        <x:v>0.0083333333333333332</x:v>
+      </x:c>
+      <x:c r="H9" s="6">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="I9" s="6">
+        <x:v>664484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A10" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>34</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>34</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D10">
         <x:v>106326896</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
+      <x:c r="E10" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F10" s="7">
+        <x:v>45452</x:v>
+      </x:c>
+      <x:c r="G10" s="8">
+        <x:v>0.0069444444444444441</x:v>
+      </x:c>
+      <x:c r="H10" s="6">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="I10" s="6">
+        <x:v>513539</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A11" t="s">
-        <x:v>62</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>61</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>35</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D11">
         <x:v>112441601</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
+      <x:c r="E11" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="F11" s="12">
+        <x:v>45620</x:v>
+      </x:c>
+      <x:c r="G11" s="8">
+        <x:v>0.02013888888888889</x:v>
+      </x:c>
+      <x:c r="H11" s="6">
+        <x:v>2362</x:v>
+      </x:c>
+      <x:c r="I11" s="6">
+        <x:v>574484</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A12" t="s">
-        <x:v>32</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D12">
         <x:v>109138810</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5" s="2" customFormat="1">
-      <x:c r="A13" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D13" s="2">
+      <x:c r="E12" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="F12" s="12">
+        <x:v>45521</x:v>
+      </x:c>
+      <x:c r="G12" s="8">
+        <x:v>0.011805555555555555</x:v>
+      </x:c>
+      <x:c r="H12" s="6">
+        <x:v>1504</x:v>
+      </x:c>
+      <x:c r="I12" s="6">
+        <x:v>620959</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <x:c r="A13" s="9" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B13" s="9" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C13" s="9" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D13" s="9">
         <x:v>97883413</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
+      <x:c r="E13" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="F13" s="3">
+        <x:v>45285</x:v>
+      </x:c>
+      <x:c r="G13" s="11">
+        <x:v>0.0375</x:v>
+      </x:c>
+      <x:c r="H13" s="10">
+        <x:v>11354</x:v>
+      </x:c>
+      <x:c r="I13" s="10">
+        <x:v>93148</x:v>
+      </x:c>
+      <x:c r="J13" s="9"/>
+      <x:c r="K13" s="9"/>
+    </x:row>
+    <x:row r="14" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A14" t="s">
-        <x:v>15</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>33</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>33</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D14">
         <x:v>106531703</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
+      <x:c r="E14" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A15" t="s">
-        <x:v>16</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>12</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D15">
         <x:v>109445344</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
+      <x:c r="E15" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A16" t="s">
-        <x:v>29</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>19</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D16">
         <x:v>110114584</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
+      <x:c r="E16" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A17" t="s">
-        <x:v>4</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D17">
         <x:v>109701039</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
+      <x:c r="E17" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A18" t="s">
-        <x:v>57</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>20</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D18">
         <x:v>109287798</x:v>
       </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
+      <x:c r="E18" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A19" t="s">
-        <x:v>58</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>36</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>36</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D19">
         <x:v>110265723</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
+      <x:c r="E19" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A20" t="s">
-        <x:v>5</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>18</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>18</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D20">
         <x:v>108229163</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
+      <x:c r="E20" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A21" t="s">
-        <x:v>11</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>27</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>27</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D21">
         <x:v>111537889</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="E21" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A22" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D22" s="1">
+        <x:v>113976942</x:v>
+      </x:c>
+      <x:c r="E22" s="13" t="s">
+        <x:v>241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A23" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D23" s="1">
+        <x:v>113917110</x:v>
+      </x:c>
+      <x:c r="E23" s="13" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A24" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D24" s="1">
+        <x:v>114255734</x:v>
+      </x:c>
+      <x:c r="E24" s="13" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A25" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D25" s="1">
+        <x:v>112278748</x:v>
+      </x:c>
+      <x:c r="E25" s="13" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A26" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D26" s="1">
+        <x:v>109033102</x:v>
+      </x:c>
+      <x:c r="E26" s="13" t="s">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A27" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D27" s="1">
+        <x:v>94937305</x:v>
+      </x:c>
+      <x:c r="E27" s="13" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A28" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D28" s="1">
+        <x:v>109178381</x:v>
+      </x:c>
+      <x:c r="E28" s="13" t="s">
+        <x:v>248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A29" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D29" s="1">
+        <x:v>108719549</x:v>
+      </x:c>
+      <x:c r="E29" s="13" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A30" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D30" s="1">
+        <x:v>111017902</x:v>
+      </x:c>
+      <x:c r="E30" s="13" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A31" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D31" s="1">
+        <x:v>113339178</x:v>
+      </x:c>
+      <x:c r="E31" s="13" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A32" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D32" s="1">
+        <x:v>107801972</x:v>
+      </x:c>
+      <x:c r="E32" s="13" t="s">
+        <x:v>243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A33" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D33" s="1">
+        <x:v>100214287</x:v>
+      </x:c>
+      <x:c r="E33" s="13" t="s">
+        <x:v>244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A34" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D34" s="1">
+        <x:v>109253971</x:v>
+      </x:c>
+      <x:c r="E34" s="13" t="s">
+        <x:v>246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A35" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D35" s="1">
+        <x:v>113338488</x:v>
+      </x:c>
+      <x:c r="E35" s="13" t="s">
+        <x:v>249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A36" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D36" s="1">
+        <x:v>105106031</x:v>
+      </x:c>
+      <x:c r="E36" s="13" t="s">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A37" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D37" s="1">
+        <x:v>90623018</x:v>
+      </x:c>
+      <x:c r="E37" s="13" t="s">
+        <x:v>242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A38" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D38" s="1">
+        <x:v>106523639</x:v>
+      </x:c>
+      <x:c r="E38" s="13" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A39" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D39" s="1">
+        <x:v>109419777</x:v>
+      </x:c>
+      <x:c r="E39" s="13" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A40" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D40" s="1">
+        <x:v>113869530</x:v>
+      </x:c>
+      <x:c r="E40" s="13" t="s">
+        <x:v>247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <x:c r="A41" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D41" s="1">
+        <x:v>108033809</x:v>
+      </x:c>
+      <x:c r="E41" s="13" t="s">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A42" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D42" s="1">
+        <x:v>111247729</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A43" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D43" s="1">
+        <x:v>110347621</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A44" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D44" s="1">
+        <x:v>107553388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A45" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D45" s="1">
+        <x:v>91080229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A46" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C46" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D46" s="1">
+        <x:v>110406931</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A47" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D47" s="1">
+        <x:v>109559979</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A48" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C48" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D48" s="1">
+        <x:v>100189447</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A49" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C49" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D49" s="1">
+        <x:v>109327360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A50" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D50" s="1">
+        <x:v>109401884</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A51" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D51" s="1">
+        <x:v>109451645</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A52" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D52" s="1">
+        <x:v>111497958</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A53" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D53" s="1">
+        <x:v>114017508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A54" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
+      <x:c r="B54" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C54" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D54" s="1">
+        <x:v>112256274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A55" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B55" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C55" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D55" s="1">
+        <x:v>101731120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A56" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B56" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D56" s="1">
+        <x:v>106446873</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A57" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B57" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C57" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D57" s="1">
+        <x:v>113671489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A58" s="1" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B58" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C58" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D58" s="1">
+        <x:v>114254925</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A59" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B59" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C59" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D59" s="1">
+        <x:v>113830764</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A60" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B60" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C60" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D60" s="1">
+        <x:v>114201535</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A61" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B61" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C61" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D61" s="1">
+        <x:v>114096019</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A62" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B62" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C62" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D62" s="1">
+        <x:v>109368070</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A63" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B63" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C63" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D63" s="1">
+        <x:v>106876853</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A64" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B64" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C64" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D64" s="1">
+        <x:v>111497512</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A65" s="1" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B65" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C65" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D65" s="1">
+        <x:v>97413713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A66" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B66" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C66" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D66" s="1">
+        <x:v>112166925</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A67" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B67" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C67" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D67" s="1">
+        <x:v>108980346</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A68" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B68" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C68" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D68" s="1">
+        <x:v>108674082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A69" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B69" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C69" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D69" s="1">
+        <x:v>110180418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A70" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B70" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C70" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D70" s="1">
+        <x:v>111839109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A71" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B71" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C71" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D71" s="1">
+        <x:v>111921124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A72" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B72" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C72" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D72" s="1">
+        <x:v>110980826</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A73" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B73" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="C73" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D73" s="1">
+        <x:v>113762523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A74" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B74" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C74" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D74" s="1">
+        <x:v>111079472</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A75" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B75" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C75" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D75" s="1">
+        <x:v>111985291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A76" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B76" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C76" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D76" s="1">
+        <x:v>111055026</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A77" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B77" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C77" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D77" s="1">
+        <x:v>109629654</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A78" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B78" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C78" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D78" s="1">
+        <x:v>111920999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A79" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B79" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C79" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D79" s="1">
+        <x:v>112169694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A80" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B80" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C80" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D80" s="1">
+        <x:v>113763911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A81" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B81" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C81" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D81" s="1">
+        <x:v>96630463</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A82" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B82" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C82" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D82" s="1">
+        <x:v>113910040</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A83" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B83" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C83" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D83" s="1">
+        <x:v>110879124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A84" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B84" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C84" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D84" s="1">
+        <x:v>111538944</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A85" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B85" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C85" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D85" s="1">
+        <x:v>111356293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A86" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B86" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C86" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D86" s="1">
+        <x:v>113637314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A87" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B87" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C87" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D87" s="1">
+        <x:v>111538968</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A88" s="1" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B88" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C88" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D88" s="1">
+        <x:v>109021036</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A89" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B89" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C89" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D89" s="1">
+        <x:v>108630923</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A90" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B90" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C90" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D90" s="1">
+        <x:v>112668718</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A91" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B91" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C91" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D91" s="1">
+        <x:v>80763060</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A92" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B92" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C92" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D92" s="1">
+        <x:v>113600784</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A93" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B93" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C93" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D93" s="1">
+        <x:v>109704733</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A94" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B94" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C94" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D94" s="1">
+        <x:v>109696945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A95" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B95" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C95" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D95" s="1">
+        <x:v>86343183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A96" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B96" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C96" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D96" s="1">
+        <x:v>82791007</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A97" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B97" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C97" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D97" s="1">
+        <x:v>93320828</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A98" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B98" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C98" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D98" s="1">
+        <x:v>110261078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A99" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B99" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C99" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D99" s="1">
+        <x:v>109671732</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A100" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B100" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C100" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D100" s="1">
+        <x:v>94130159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A101" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B101" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C101" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D101" s="1">
+        <x:v>108349382</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A102" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B102" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C102" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="D102" s="1">
+        <x:v>113874892</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A103" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B103" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C103" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D103" s="1">
+        <x:v>87877800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A104" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B104" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C104" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D104" s="1">
+        <x:v>94772579</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A105" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B105" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C105" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D105" s="1">
+        <x:v>109025838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A106" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B106" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C106" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D106" s="1">
+        <x:v>109332047</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A107" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B107" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C107" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D107" s="1">
+        <x:v>108875764</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A108" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B108" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C108" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D108" s="1">
+        <x:v>89640867</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A109" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B109" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C109" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D109" s="1">
+        <x:v>107381409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A110" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B110" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C110" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D110" s="1">
+        <x:v>114338830</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A111" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B111" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C111" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D111" s="1">
+        <x:v>109591074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A112" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B112" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C112" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D112" s="1">
+        <x:v>81273534</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A113" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B113" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C113" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D113" s="1">
+        <x:v>107200950</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A114" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B114" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C114" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D114" s="1">
+        <x:v>113446677</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A115" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B115" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C115" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D115" s="1">
+        <x:v>94364915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A116" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B116" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C116" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D116" s="1">
+        <x:v>104211553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A117" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B117" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C117" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D117" s="1">
+        <x:v>81414824</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A118" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B118" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C118" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D118" s="1">
+        <x:v>85954972</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A119" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B119" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C119" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D119" s="1">
+        <x:v>110207750</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A120" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B120" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C120" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D120" s="1">
+        <x:v>88053347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A121" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B121" s="1"/>
+      <x:c r="C121" s="1"/>
+      <x:c r="D121" s="1"/>
+    </x:row>
+    <x:row r="122" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A122" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B122" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C122" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D122" s="1">
+        <x:v>108354408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A123" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B123" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C123" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D123" s="1">
+        <x:v>99239815</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A124" s="1" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B124" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C124" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D124" s="1">
+        <x:v>103893338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A125" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B125" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C125" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D125" s="1">
+        <x:v>98264485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A126" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B126" s="1"/>
+      <x:c r="C126" s="1"/>
+      <x:c r="D126" s="1"/>
+    </x:row>
+    <x:row r="127" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A127" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B127" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C127" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D127" s="1">
+        <x:v>112843406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A128" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B128" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C128" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D128" s="1">
+        <x:v>87472188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A129" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B129" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C129" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D129" s="1">
+        <x:v>108957869</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A130" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B130" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C130" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D130" s="1">
+        <x:v>107210087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A131" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B131" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C131" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D131" s="1">
+        <x:v>111271388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A132" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B132" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C132" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D132" s="1">
+        <x:v>113842372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A133" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B133" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C133" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D133" s="1">
+        <x:v>106325230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A134" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B134" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C134" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D134" s="1">
+        <x:v>106407953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A135" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B135" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C135" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D135" s="1">
+        <x:v>80395620</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A136" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B136" s="1"/>
+      <x:c r="C136" s="1"/>
+      <x:c r="D136" s="1"/>
+    </x:row>
+    <x:row r="137" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A137" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B137" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C137" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D137" s="1">
+        <x:v>108035343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A138" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B138" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C138" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D138" s="1">
+        <x:v>109750471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A139" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B139" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C139" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D139" s="1">
+        <x:v>109252808</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A140" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B140" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C140" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D140" s="1">
+        <x:v>113976523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A141" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B141" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C141" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="D141" s="1">
+        <x:v>113377051</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="A142" s="1"/>
+      <x:c r="B142" s="1"/>
+      <x:c r="C142" s="1"/>
+      <x:c r="D142" s="1"/>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E4:E4" r:id="rId1"/>
-    <x:hyperlink ref="E5:E5" r:id="rId2"/>
-    <x:hyperlink ref="E6:E6" r:id="rId3"/>
-    <x:hyperlink ref="E7:E7" r:id="rId4"/>
-    <x:hyperlink ref="E8:E8" r:id="rId5"/>
-    <x:hyperlink ref="E9:E9" r:id="rId6"/>
-    <x:hyperlink ref="E10:E10" r:id="rId7"/>
-    <x:hyperlink ref="E11:E11" r:id="rId8"/>
-    <x:hyperlink ref="E12:E12" r:id="rId9"/>
-    <x:hyperlink ref="E13:E13" r:id="rId10"/>
-    <x:hyperlink ref="E14:E14" r:id="rId11"/>
-    <x:hyperlink ref="E16:E16" r:id="rId12"/>
-    <x:hyperlink ref="E17:E17" r:id="rId13"/>
-    <x:hyperlink ref="E19:E19" r:id="rId14"/>
-    <x:hyperlink ref="E15:E15" r:id="rId15"/>
-    <x:hyperlink ref="E20:E20" r:id="rId16"/>
+    <x:hyperlink ref="E2:E2" r:id="rId1"/>
+    <x:hyperlink ref="E3:E3" r:id="rId2"/>
+    <x:hyperlink ref="E4:E4" r:id="rId3"/>
+    <x:hyperlink ref="E5:E5" r:id="rId4"/>
+    <x:hyperlink ref="E6:E6" r:id="rId5"/>
+    <x:hyperlink ref="E7:E7" r:id="rId6"/>
+    <x:hyperlink ref="E8:E8" r:id="rId7"/>
+    <x:hyperlink ref="E9:E9" r:id="rId8"/>
+    <x:hyperlink ref="E10:E10" r:id="rId9"/>
+    <x:hyperlink ref="E11:E11" r:id="rId10"/>
+    <x:hyperlink ref="E12:E12" r:id="rId11"/>
+    <x:hyperlink ref="E13:E13" r:id="rId12"/>
+    <x:hyperlink ref="E14:E14" r:id="rId13"/>
+    <x:hyperlink ref="E15:E15" r:id="rId14"/>
+    <x:hyperlink ref="E16:E16" r:id="rId15"/>
+    <x:hyperlink ref="E17:E17" r:id="rId16"/>
     <x:hyperlink ref="E18:E18" r:id="rId17"/>
-    <x:hyperlink ref="E2:E2" r:id="rId18"/>
-    <x:hyperlink ref="E3:E3" r:id="rId19"/>
+    <x:hyperlink ref="E19:E19" r:id="rId18"/>
+    <x:hyperlink ref="E20:E20" r:id="rId19"/>
     <x:hyperlink ref="E21:E21" r:id="rId20"/>
+    <x:hyperlink ref="E22:E22" r:id="rId21"/>
+    <x:hyperlink ref="E23:E23" r:id="rId22"/>
+    <x:hyperlink ref="E24:E24" r:id="rId23"/>
+    <x:hyperlink ref="E25:E25" r:id="rId24"/>
+    <x:hyperlink ref="E26:E26" r:id="rId25"/>
+    <x:hyperlink ref="E27:E27" r:id="rId26"/>
+    <x:hyperlink ref="E28:E28" r:id="rId27"/>
+    <x:hyperlink ref="E29:E29" r:id="rId28"/>
+    <x:hyperlink ref="E31:E31" r:id="rId29"/>
+    <x:hyperlink ref="E30:E30" r:id="rId30"/>
+    <x:hyperlink ref="E32:E32" r:id="rId31"/>
+    <x:hyperlink ref="E33:E33" r:id="rId32"/>
+    <x:hyperlink ref="E34:E34" r:id="rId33"/>
+    <x:hyperlink ref="E35:E35" r:id="rId34"/>
+    <x:hyperlink ref="E36:E36" r:id="rId35"/>
+    <x:hyperlink ref="E37:E37" r:id="rId36"/>
+    <x:hyperlink ref="E38:E38" r:id="rId37"/>
+    <x:hyperlink ref="E39:E39" r:id="rId38"/>
+    <x:hyperlink ref="E40:E40" r:id="rId39"/>
+    <x:hyperlink ref="E41:E41" r:id="rId40"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0" footer="0"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/forumlist.xlsx
+++ b/forumlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="8088" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8112" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,14 +19,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="251">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="175">
+  <x:si>
+    <x:t>https://youtu.be/zwo7MAIhC_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/1PzqPj4lHok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/uUP0nbcH0wc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/rE1G7FZSH_Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/JuxeL2lmI9A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/WHnNCky4kV8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/INAsbPkFkSw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/jRgxER8Tb1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/g0mq8M8ziI8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/gXZFje2ya8Q</x:t>
+  </x:si>
   <x:si>
     <x:t>YoonGi Challenge</x:t>
   </x:si>
   <x:si>
-    <x:t>how to gameplay 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>GDNewHIPPO</x:t>
   </x:si>
   <x:si>
@@ -75,48 +102,12 @@
     <x:t>starmate</x:t>
   </x:si>
   <x:si>
-    <x:t>skyturtle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spotlight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tetris09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ufo dance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>really easy</x:t>
-  </x:si>
-  <x:si>
     <x:t>Uping Fall</x:t>
   </x:si>
   <x:si>
-    <x:t>Smart Boy</x:t>
-  </x:si>
-  <x:si>
     <x:t>taemin0206</x:t>
   </x:si>
   <x:si>
-    <x:t>Bloodmoment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Just Finale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>once again</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태여이,OroxyKR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KRyechan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Krmal,니나노</x:t>
-  </x:si>
-  <x:si>
     <x:t>KRlaw,태여이</x:t>
   </x:si>
   <x:si>
@@ -177,12 +168,6 @@
     <x:t>blekupen circles</x:t>
   </x:si>
   <x:si>
-    <x:t>2024nyon e do Solk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No sink challenge</x:t>
-  </x:si>
-  <x:si>
     <x:t>Suneung Challenge</x:t>
   </x:si>
   <x:si>
@@ -195,81 +180,6 @@
     <x:t>https://youtu.be/RsTBjEZ5-Bw</x:t>
   </x:si>
   <x:si>
-    <x:t>Crazy Bear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Death Widow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unnamed 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rangk,니나노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tan San Soo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>allsyou12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Private Way</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Happy Day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Noobas,태여이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-----플랫포머 리스트-----</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xo wave challenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frame hell penale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eyes in the penalus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rustam,llrell,니나노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>covald challenge 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hayang challenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crazy Bear Buffed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-----스팸 리스트-----</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mklv challenge end</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Penalus challenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>elelelelelelelebus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gd practice basic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-----암기 리스트-----</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wunigd challengg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plasma Platformer</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://youtu.be/EKGZkXxgtQk</x:t>
   </x:si>
   <x:si>
@@ -279,9 +189,6 @@
     <x:t>Machina Challenge</x:t>
   </x:si>
   <x:si>
-    <x:t>i i i in my part</x:t>
-  </x:si>
-  <x:si>
     <x:t>krushgirl challenge</x:t>
   </x:si>
   <x:si>
@@ -291,13 +198,13 @@
     <x:t>goqual maaaaaaaaaaa</x:t>
   </x:si>
   <x:si>
-    <x:t>celebrity fix</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://youtu.be/NkkAVqoTL1o</x:t>
   </x:si>
   <x:si>
-    <x:t>hard memorizing</x:t>
+    <x:t>https://youtu.be/xLQJxSoXBco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/paCMvBqlo1M</x:t>
   </x:si>
   <x:si>
     <x:t>verylongername</x:t>
@@ -306,30 +213,12 @@
     <x:t>Boramae Dance</x:t>
   </x:si>
   <x:si>
-    <x:t>ship challenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quack Forum,니나노</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hell Dimension</x:t>
   </x:si>
   <x:si>
     <x:t>Koriyaman123</x:t>
   </x:si>
   <x:si>
-    <x:t>Soboro my part</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELELELE buff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weoweoteo,니나노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54387fu0vdxbt6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Quack Forum,하양</x:t>
   </x:si>
   <x:si>
@@ -339,12 +228,6 @@
     <x:t>sh challenge</x:t>
   </x:si>
   <x:si>
-    <x:t>sanix wave ii</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ultramicroton</x:t>
-  </x:si>
-  <x:si>
     <x:t>bluesapphire666</x:t>
   </x:si>
   <x:si>
@@ -354,9 +237,6 @@
     <x:t>pdslay3r,lim777</x:t>
   </x:si>
   <x:si>
-    <x:t>wave difficult</x:t>
-  </x:si>
-  <x:si>
     <x:t>Fenrrig,OroxyKR</x:t>
   </x:si>
   <x:si>
@@ -369,9 +249,6 @@
     <x:t>telsonic wave</x:t>
   </x:si>
   <x:si>
-    <x:t>useless hitbox</x:t>
-  </x:si>
-  <x:si>
     <x:t>Critical meow</x:t>
   </x:si>
   <x:si>
@@ -381,27 +258,9 @@
     <x:t>past universe</x:t>
   </x:si>
   <x:si>
-    <x:t>4x challenge 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vs 2c finish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>i hate Finale X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>니나노,Quack Forum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vs 2c unnerfed</x:t>
-  </x:si>
-  <x:si>
     <x:t>Dap Dyu Dyu infidyu</x:t>
   </x:si>
   <x:si>
-    <x:t>oroxy never clear</x:t>
-  </x:si>
-  <x:si>
     <x:t>UNNERFED Crazy Bear</x:t>
   </x:si>
   <x:si>
@@ -411,36 +270,12 @@
     <x:t>Casj3cAs6354fHafDS</x:t>
   </x:si>
   <x:si>
-    <x:t>Tidal wave startpos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>old layout penale</x:t>
-  </x:si>
-  <x:si>
     <x:t>iiimintiii,Kansha</x:t>
   </x:si>
   <x:si>
-    <x:t>pokemon master buff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>only spider layout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMPOSSIBLE TIMING</x:t>
-  </x:si>
-  <x:si>
     <x:t>SWIIIIIIIIIIIIIIING</x:t>
   </x:si>
   <x:si>
-    <x:t>nenells was my part</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nieolgul Hayang Kim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quack Forum,hy12</x:t>
-  </x:si>
-  <x:si>
     <x:t>Trinitic Circles</x:t>
   </x:si>
   <x:si>
@@ -450,15 +285,6 @@
     <x:t>dhdydwns's cousin</x:t>
   </x:si>
   <x:si>
-    <x:t>spike challenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>God Wave Penale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 or 3 stars</x:t>
-  </x:si>
-  <x:si>
     <x:t>하양</x:t>
   </x:si>
   <x:si>
@@ -468,21 +294,12 @@
     <x:t>니나노</x:t>
   </x:si>
   <x:si>
-    <x:t>OX</x:t>
-  </x:si>
-  <x:si>
     <x:t>태여이</x:t>
   </x:si>
   <x:si>
-    <x:t>CH</x:t>
-  </x:si>
-  <x:si>
     <x:t>용러</x:t>
   </x:si>
   <x:si>
-    <x:t>tutist</x:t>
-  </x:si>
-  <x:si>
     <x:t>GENESIS</x:t>
   </x:si>
   <x:si>
@@ -570,63 +387,24 @@
     <x:t>creater</x:t>
   </x:si>
   <x:si>
-    <x:t>Classic</x:t>
-  </x:si>
-  <x:si>
     <x:t>levelid</x:t>
   </x:si>
   <x:si>
-    <x:t>hy12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>icicle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lol 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>ALT F6</x:t>
   </x:si>
   <x:si>
-    <x:t>Move</x:t>
-  </x:si>
-  <x:si>
     <x:t>length</x:t>
   </x:si>
   <x:si>
-    <x:t>Arcylic</x:t>
-  </x:si>
-  <x:si>
     <x:t>date</x:t>
   </x:si>
   <x:si>
-    <x:t>sawert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zhelv</x:t>
-  </x:si>
-  <x:si>
     <x:t>노란딱지</x:t>
   </x:si>
   <x:si>
-    <x:t>desc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Solk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PerainX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SnowGDk</x:t>
-  </x:si>
-  <x:si>
     <x:t>unnamed</x:t>
   </x:si>
   <x:si>
-    <x:t>Dap Dyu Dyu Dyu</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://youtu.be/ZIm8gFp507s</x:t>
   </x:si>
   <x:si>
@@ -687,30 +465,9 @@
     <x:t>https://youtu.be/AvBB4ZpkXRc</x:t>
   </x:si>
   <x:si>
-    <x:t>original nenells par</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eyes in the tmxmfnls</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dap Dyu Dyu RebirDyu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shitty BOF mini buff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sakupen hell spam ne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>니나노,Quack Forum,GGboy</x:t>
-  </x:si>
-  <x:si>
     <x:t>mingmo never clear 3</x:t>
   </x:si>
   <x:si>
-    <x:t>Quack Forum,dhdydwns</x:t>
-  </x:si>
-  <x:si>
     <x:t>Bangnical Depression</x:t>
   </x:si>
   <x:si>
@@ -720,18 +477,6 @@
     <x:t>Fingerdash swag buff</x:t>
   </x:si>
   <x:si>
-    <x:t>cyberconxteuct tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R2ND0M T3RR1BLE T0U8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omg bongus chlmancha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shitty BOF mini wave</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://youtu.be/goRcvaZYDRM</x:t>
   </x:si>
   <x:si>
@@ -747,12 +492,18 @@
     <x:t>https://youtu.be/TkYRekJJPpU</x:t>
   </x:si>
   <x:si>
+    <x:t>minper</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://youtu.be/wHJF83-j4G8</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/qP7Zb_dGya4</x:t>
   </x:si>
   <x:si>
+    <x:t>https://youtu.be/H3hUpiP9S6I</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://youtu.be/m8dTAoEjaR0</x:t>
   </x:si>
   <x:si>
@@ -763,6 +514,27 @@
   </x:si>
   <x:si>
     <x:t>https://youtu.be/Ub3ymD1FvkI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/WqxCgKrqQfU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/b5_iUpU0n6Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/lL6S07FAxpk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/UsXKaYGl0zE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/GTOtRCIMlGg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/mpRI5Ec_8SY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://youtu.be/lZJEYxZeeIg</x:t>
   </x:si>
   <x:si>
     <x:t>https://youtu.be/WYcDaZauArg</x:t>
@@ -892,7 +664,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -933,6 +705,9 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1649,8 +1424,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:K142"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F39" activeCellId="0" sqref="F39:F39"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I4" activeCellId="0" sqref="I4:I4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="15" customHeight="1"/>
@@ -1666,50 +1441,53 @@
     <x:col min="10" max="11" width="8.859375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <x:row r="1" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A1" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>182</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>184</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>181</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F1" t="s">
-        <x:v>192</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G1" t="s">
-        <x:v>190</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H1" t="s">
-        <x:v>147</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I1" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9" ht="15.75" customHeight="1">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="J1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10" ht="15.75" customHeight="1">
       <x:c r="A2" t="s">
-        <x:v>176</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>160</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>179</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D2">
         <x:v>109039996</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F2" s="3">
         <x:v>45518</x:v>
@@ -1723,22 +1501,25 @@
       <x:c r="I2" s="1">
         <x:v>1152826</x:v>
       </x:c>
+      <x:c r="J2" s="14">
+        <x:v>0.42999999999999999</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A3" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>169</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>169</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D3">
         <x:v>112437156</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F3" s="3">
         <x:v>45620</x:v>
@@ -1755,19 +1536,19 @@
     </x:row>
     <x:row r="4" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A4" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="C4" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="D4">
         <x:v>113336301</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F4" s="3">
         <x:v>45648</x:v>
@@ -1784,19 +1565,19 @@
     </x:row>
     <x:row r="5" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A5" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B5" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D5">
         <x:v>102575800</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F5" s="3">
         <x:v>45368</x:v>
@@ -1813,19 +1594,19 @@
     </x:row>
     <x:row r="6" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A6" t="s">
-        <x:v>167</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B6" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D6">
         <x:v>97227131</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F6" s="3">
         <x:v>45270</x:v>
@@ -1842,19 +1623,19 @@
     </x:row>
     <x:row r="7" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A7" t="s">
-        <x:v>97</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>156</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D7">
         <x:v>110267475</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>45553</x:v>
@@ -1871,19 +1652,19 @@
     </x:row>
     <x:row r="8" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A8" t="s">
-        <x:v>154</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B8" t="s">
-        <x:v>98</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>98</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D8">
         <x:v>113106234</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F8" s="3">
         <x:v>45641</x:v>
@@ -1900,19 +1681,19 @@
     </x:row>
     <x:row r="9" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A9" t="s">
-        <x:v>180</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>175</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>175</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D9">
         <x:v>110826923</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F9" s="7">
         <x:v>45570</x:v>
@@ -1929,19 +1710,19 @@
     </x:row>
     <x:row r="10" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A10" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>155</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>155</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D10">
         <x:v>106326896</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F10" s="7">
         <x:v>45452</x:v>
@@ -1958,19 +1739,19 @@
     </x:row>
     <x:row r="11" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A11" t="s">
-        <x:v>115</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>114</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>157</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D11">
         <x:v>112441601</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F11" s="12">
         <x:v>45620</x:v>
@@ -1987,19 +1768,19 @@
     </x:row>
     <x:row r="12" spans="1:9" ht="15.75" customHeight="1">
       <x:c r="A12" t="s">
-        <x:v>158</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B12" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D12">
         <x:v>109138810</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F12" s="12">
         <x:v>45521</x:v>
@@ -2016,19 +1797,19 @@
     </x:row>
     <x:row r="13" spans="1:11" ht="15.75" customHeight="1">
       <x:c r="A13" s="9" t="s">
-        <x:v>140</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B13" s="9" t="s">
-        <x:v>163</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>163</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D13" s="9">
         <x:v>97883413</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F13" s="3">
         <x:v>45285</x:v>
@@ -2047,1861 +1828,1299 @@
     </x:row>
     <x:row r="14" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A14" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>175</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>175</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D14">
         <x:v>106531703</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A15" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D15">
         <x:v>109445344</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A16" t="s">
-        <x:v>162</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>152</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D16">
         <x:v>110114584</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A17" t="s">
-        <x:v>141</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B17" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D17">
         <x:v>109701039</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A18" t="s">
-        <x:v>109</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B18" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D18">
         <x:v>109287798</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A19" t="s">
-        <x:v>105</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B19" t="s">
-        <x:v>159</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>159</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D19">
         <x:v>110265723</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A20" t="s">
-        <x:v>88</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B20" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C20" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D20">
         <x:v>108229163</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A21" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B21" t="s">
-        <x:v>178</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>178</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D21">
         <x:v>111537889</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A22" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D22" s="1">
         <x:v>113976942</x:v>
       </x:c>
       <x:c r="E22" s="13" t="s">
-        <x:v>241</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A23" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D23" s="1">
         <x:v>113917110</x:v>
       </x:c>
       <x:c r="E23" s="13" t="s">
-        <x:v>237</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A24" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D24" s="1">
         <x:v>114255734</x:v>
       </x:c>
       <x:c r="E24" s="13" t="s">
-        <x:v>239</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A25" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D25" s="1">
         <x:v>112278748</x:v>
       </x:c>
       <x:c r="E25" s="13" t="s">
-        <x:v>83</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D26" s="1">
         <x:v>109033102</x:v>
       </x:c>
       <x:c r="E26" s="13" t="s">
-        <x:v>240</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A27" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D27" s="1">
         <x:v>94937305</x:v>
       </x:c>
       <x:c r="E27" s="13" t="s">
-        <x:v>84</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A28" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D28" s="1">
         <x:v>109178381</x:v>
       </x:c>
       <x:c r="E28" s="13" t="s">
-        <x:v>248</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A29" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D29" s="1">
         <x:v>108719549</x:v>
       </x:c>
       <x:c r="E29" s="13" t="s">
-        <x:v>91</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D30" s="1">
         <x:v>111017902</x:v>
       </x:c>
       <x:c r="E30" s="13" t="s">
-        <x:v>57</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A31" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="C31" s="1" t="s">
-        <x:v>173</x:v>
       </x:c>
       <x:c r="D31" s="1">
         <x:v>113339178</x:v>
       </x:c>
       <x:c r="E31" s="13" t="s">
-        <x:v>238</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A32" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D32" s="1">
         <x:v>107801972</x:v>
       </x:c>
       <x:c r="E32" s="13" t="s">
-        <x:v>243</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A33" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D33" s="1">
         <x:v>100214287</x:v>
       </x:c>
       <x:c r="E33" s="13" t="s">
-        <x:v>244</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A34" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D34" s="1">
         <x:v>109253971</x:v>
       </x:c>
       <x:c r="E34" s="13" t="s">
-        <x:v>246</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A35" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="C35" s="1" t="s">
-        <x:v>173</x:v>
       </x:c>
       <x:c r="D35" s="1">
         <x:v>113338488</x:v>
       </x:c>
       <x:c r="E35" s="13" t="s">
-        <x:v>249</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A36" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D36" s="1">
         <x:v>105106031</x:v>
       </x:c>
       <x:c r="E36" s="13" t="s">
-        <x:v>250</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A37" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="1">
         <x:v>90623018</x:v>
       </x:c>
       <x:c r="E37" s="13" t="s">
-        <x:v>242</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A38" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D38" s="1">
         <x:v>106523639</x:v>
       </x:c>
       <x:c r="E38" s="13" t="s">
-        <x:v>55</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A39" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D39" s="1">
         <x:v>109419777</x:v>
       </x:c>
       <x:c r="E39" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A40" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D40" s="1">
         <x:v>113869530</x:v>
       </x:c>
       <x:c r="E40" s="13" t="s">
-        <x:v>247</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A41" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D41" s="1">
         <x:v>108033809</x:v>
       </x:c>
       <x:c r="E41" s="13" t="s">
-        <x:v>245</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4" ht="15.75" customHeight="1">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A42" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D42" s="1">
         <x:v>111247729</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E42" s="13" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A43" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D43" s="1">
         <x:v>110347621</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E43" s="13" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A44" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D44" s="1">
         <x:v>107553388</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E44" s="13" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A45" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D45" s="1">
         <x:v>91080229</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E45" s="13" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A46" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B46" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D46" s="1">
         <x:v>110406931</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E46" s="13" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A47" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B47" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D47" s="1">
         <x:v>109559979</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E47" s="13" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A48" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B48" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D48" s="1">
         <x:v>100189447</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E48" s="13" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A49" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D49" s="1">
         <x:v>109327360</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E49" s="13" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A50" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D50" s="1">
         <x:v>109401884</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E50" s="13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A51" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D51" s="1">
         <x:v>109451645</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E51" s="13" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A52" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D52" s="1">
         <x:v>111497958</x:v>
       </x:c>
-    </x:row>
-    <x:row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E52" s="13" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A53" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D53" s="1">
         <x:v>114017508</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E53" s="13" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A54" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D54" s="1">
         <x:v>112256274</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E54" s="13" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A55" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D55" s="1">
         <x:v>101731120</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E55" s="13" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A56" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D56" s="1">
         <x:v>106446873</x:v>
       </x:c>
-    </x:row>
-    <x:row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E56" s="13" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A57" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D57" s="1">
         <x:v>113671489</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E57" s="13" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A58" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D58" s="1">
         <x:v>114254925</x:v>
       </x:c>
-    </x:row>
-    <x:row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E58" s="13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A59" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B59" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D59" s="1">
         <x:v>113830764</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E59" s="13" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A60" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D60" s="1">
         <x:v>114201535</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <x:c r="E60" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A61" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D61" s="1">
         <x:v>114096019</x:v>
       </x:c>
+      <x:c r="E61" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
     <x:row r="62" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A62" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B62" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C62" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D62" s="1">
-        <x:v>109368070</x:v>
-      </x:c>
+      <x:c r="A62" s="1"/>
+      <x:c r="B62" s="1"/>
+      <x:c r="C62" s="1"/>
+      <x:c r="D62" s="1"/>
     </x:row>
     <x:row r="63" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A63" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B63" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C63" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D63" s="1">
-        <x:v>106876853</x:v>
-      </x:c>
+      <x:c r="A63" s="1"/>
+      <x:c r="B63" s="1"/>
+      <x:c r="C63" s="1"/>
+      <x:c r="D63" s="1"/>
     </x:row>
     <x:row r="64" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A64" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B64" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C64" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D64" s="1">
-        <x:v>111497512</x:v>
-      </x:c>
+      <x:c r="A64" s="1"/>
+      <x:c r="B64" s="1"/>
+      <x:c r="C64" s="1"/>
+      <x:c r="D64" s="1"/>
     </x:row>
     <x:row r="65" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A65" s="1" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="B65" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C65" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D65" s="1">
-        <x:v>97413713</x:v>
-      </x:c>
+      <x:c r="A65" s="1"/>
+      <x:c r="B65" s="1"/>
+      <x:c r="C65" s="1"/>
+      <x:c r="D65" s="1"/>
     </x:row>
     <x:row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A66" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B66" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C66" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D66" s="1">
-        <x:v>112166925</x:v>
-      </x:c>
+      <x:c r="A66" s="1"/>
+      <x:c r="B66" s="1"/>
+      <x:c r="C66" s="1"/>
+      <x:c r="D66" s="1"/>
     </x:row>
     <x:row r="67" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A67" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B67" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C67" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D67" s="1">
-        <x:v>108980346</x:v>
-      </x:c>
+      <x:c r="A67" s="1"/>
+      <x:c r="B67" s="1"/>
+      <x:c r="C67" s="1"/>
+      <x:c r="D67" s="1"/>
     </x:row>
     <x:row r="68" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A68" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B68" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C68" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D68" s="1">
-        <x:v>108674082</x:v>
-      </x:c>
+      <x:c r="A68" s="1"/>
+      <x:c r="B68" s="1"/>
+      <x:c r="C68" s="1"/>
+      <x:c r="D68" s="1"/>
     </x:row>
     <x:row r="69" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A69" s="1" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="B69" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C69" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D69" s="1">
-        <x:v>110180418</x:v>
-      </x:c>
+      <x:c r="A69" s="1"/>
+      <x:c r="B69" s="1"/>
+      <x:c r="C69" s="1"/>
+      <x:c r="D69" s="1"/>
     </x:row>
     <x:row r="70" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A70" s="1" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B70" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C70" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D70" s="1">
-        <x:v>111839109</x:v>
-      </x:c>
+      <x:c r="A70" s="1"/>
+      <x:c r="B70" s="1"/>
+      <x:c r="C70" s="1"/>
+      <x:c r="D70" s="1"/>
     </x:row>
     <x:row r="71" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A71" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B71" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C71" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D71" s="1">
-        <x:v>111921124</x:v>
-      </x:c>
+      <x:c r="A71" s="1"/>
+      <x:c r="B71" s="1"/>
+      <x:c r="C71" s="1"/>
+      <x:c r="D71" s="1"/>
     </x:row>
     <x:row r="72" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A72" s="1" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="B72" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C72" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D72" s="1">
-        <x:v>110980826</x:v>
-      </x:c>
+      <x:c r="A72" s="1"/>
+      <x:c r="B72" s="1"/>
+      <x:c r="C72" s="1"/>
+      <x:c r="D72" s="1"/>
     </x:row>
     <x:row r="73" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A73" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B73" s="1" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="C73" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D73" s="1">
-        <x:v>113762523</x:v>
-      </x:c>
+      <x:c r="A73" s="1"/>
+      <x:c r="B73" s="1"/>
+      <x:c r="C73" s="1"/>
+      <x:c r="D73" s="1"/>
     </x:row>
     <x:row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A74" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="B74" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C74" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="D74" s="1">
-        <x:v>111079472</x:v>
-      </x:c>
+      <x:c r="A74" s="1"/>
+      <x:c r="B74" s="1"/>
+      <x:c r="C74" s="1"/>
+      <x:c r="D74" s="1"/>
     </x:row>
     <x:row r="75" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A75" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="B75" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C75" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D75" s="1">
-        <x:v>111985291</x:v>
-      </x:c>
+      <x:c r="A75" s="1"/>
+      <x:c r="B75" s="1"/>
+      <x:c r="C75" s="1"/>
+      <x:c r="D75" s="1"/>
     </x:row>
     <x:row r="76" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A76" s="1" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="B76" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C76" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="D76" s="1">
-        <x:v>111055026</x:v>
-      </x:c>
+      <x:c r="A76" s="1"/>
+      <x:c r="B76" s="1"/>
+      <x:c r="C76" s="1"/>
+      <x:c r="D76" s="1"/>
     </x:row>
     <x:row r="77" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A77" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="B77" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C77" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D77" s="1">
-        <x:v>109629654</x:v>
-      </x:c>
+      <x:c r="A77" s="1"/>
+      <x:c r="B77" s="1"/>
+      <x:c r="C77" s="1"/>
+      <x:c r="D77" s="1"/>
     </x:row>
     <x:row r="78" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A78" s="1" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="B78" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C78" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D78" s="1">
-        <x:v>111920999</x:v>
-      </x:c>
+      <x:c r="A78" s="1"/>
+      <x:c r="B78" s="1"/>
+      <x:c r="C78" s="1"/>
+      <x:c r="D78" s="1"/>
     </x:row>
     <x:row r="79" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A79" s="1" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="B79" s="1" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C79" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D79" s="1">
-        <x:v>112169694</x:v>
-      </x:c>
+      <x:c r="A79" s="1"/>
+      <x:c r="B79" s="1"/>
+      <x:c r="C79" s="1"/>
+      <x:c r="D79" s="1"/>
     </x:row>
     <x:row r="80" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A80" s="1" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="B80" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C80" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D80" s="1">
-        <x:v>113763911</x:v>
-      </x:c>
+      <x:c r="A80" s="1"/>
+      <x:c r="B80" s="1"/>
+      <x:c r="C80" s="1"/>
+      <x:c r="D80" s="1"/>
     </x:row>
     <x:row r="81" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A81" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="B81" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C81" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D81" s="1">
-        <x:v>96630463</x:v>
-      </x:c>
+      <x:c r="A81" s="1"/>
+      <x:c r="B81" s="1"/>
+      <x:c r="C81" s="1"/>
+      <x:c r="D81" s="1"/>
     </x:row>
     <x:row r="82" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A82" s="1" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="B82" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C82" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D82" s="1">
-        <x:v>113910040</x:v>
-      </x:c>
+      <x:c r="A82" s="1"/>
+      <x:c r="B82" s="1"/>
+      <x:c r="C82" s="1"/>
+      <x:c r="D82" s="1"/>
     </x:row>
     <x:row r="83" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A83" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="B83" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C83" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D83" s="1">
-        <x:v>110879124</x:v>
-      </x:c>
+      <x:c r="A83" s="1"/>
+      <x:c r="B83" s="1"/>
+      <x:c r="C83" s="1"/>
+      <x:c r="D83" s="1"/>
     </x:row>
     <x:row r="84" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A84" s="1" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B84" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C84" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D84" s="1">
-        <x:v>111538944</x:v>
-      </x:c>
+      <x:c r="A84" s="1"/>
+      <x:c r="B84" s="1"/>
+      <x:c r="C84" s="1"/>
+      <x:c r="D84" s="1"/>
     </x:row>
     <x:row r="85" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A85" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B85" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C85" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D85" s="1">
-        <x:v>111356293</x:v>
-      </x:c>
+      <x:c r="A85" s="1"/>
+      <x:c r="B85" s="1"/>
+      <x:c r="C85" s="1"/>
+      <x:c r="D85" s="1"/>
     </x:row>
     <x:row r="86" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A86" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="B86" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C86" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D86" s="1">
-        <x:v>113637314</x:v>
-      </x:c>
+      <x:c r="A86" s="1"/>
+      <x:c r="B86" s="1"/>
+      <x:c r="C86" s="1"/>
+      <x:c r="D86" s="1"/>
     </x:row>
     <x:row r="87" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A87" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B87" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C87" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D87" s="1">
-        <x:v>111538968</x:v>
-      </x:c>
+      <x:c r="A87" s="1"/>
+      <x:c r="B87" s="1"/>
+      <x:c r="C87" s="1"/>
+      <x:c r="D87" s="1"/>
     </x:row>
     <x:row r="88" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A88" s="1" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="B88" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C88" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D88" s="1">
-        <x:v>109021036</x:v>
-      </x:c>
+      <x:c r="A88" s="1"/>
+      <x:c r="B88" s="1"/>
+      <x:c r="C88" s="1"/>
+      <x:c r="D88" s="1"/>
     </x:row>
     <x:row r="89" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A89" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B89" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C89" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D89" s="1">
-        <x:v>108630923</x:v>
-      </x:c>
+      <x:c r="A89" s="1"/>
+      <x:c r="B89" s="1"/>
+      <x:c r="C89" s="1"/>
+      <x:c r="D89" s="1"/>
     </x:row>
     <x:row r="90" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A90" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="B90" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C90" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D90" s="1">
-        <x:v>112668718</x:v>
-      </x:c>
+      <x:c r="A90" s="1"/>
+      <x:c r="B90" s="1"/>
+      <x:c r="C90" s="1"/>
+      <x:c r="D90" s="1"/>
     </x:row>
     <x:row r="91" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A91" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B91" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C91" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D91" s="1">
-        <x:v>80763060</x:v>
-      </x:c>
+      <x:c r="A91" s="1"/>
+      <x:c r="B91" s="1"/>
+      <x:c r="C91" s="1"/>
+      <x:c r="D91" s="1"/>
     </x:row>
     <x:row r="92" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A92" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="B92" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C92" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D92" s="1">
-        <x:v>113600784</x:v>
-      </x:c>
+      <x:c r="A92" s="1"/>
+      <x:c r="B92" s="1"/>
+      <x:c r="C92" s="1"/>
+      <x:c r="D92" s="1"/>
     </x:row>
     <x:row r="93" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A93" s="1" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="B93" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C93" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D93" s="1">
-        <x:v>109704733</x:v>
-      </x:c>
+      <x:c r="A93" s="1"/>
+      <x:c r="B93" s="1"/>
+      <x:c r="C93" s="1"/>
+      <x:c r="D93" s="1"/>
     </x:row>
     <x:row r="94" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A94" s="1" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="B94" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C94" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D94" s="1">
-        <x:v>109696945</x:v>
-      </x:c>
+      <x:c r="A94" s="1"/>
+      <x:c r="B94" s="1"/>
+      <x:c r="C94" s="1"/>
+      <x:c r="D94" s="1"/>
     </x:row>
     <x:row r="95" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A95" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B95" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C95" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D95" s="1">
-        <x:v>86343183</x:v>
-      </x:c>
+      <x:c r="A95" s="1"/>
+      <x:c r="B95" s="1"/>
+      <x:c r="C95" s="1"/>
+      <x:c r="D95" s="1"/>
     </x:row>
     <x:row r="96" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A96" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B96" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C96" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D96" s="1">
-        <x:v>82791007</x:v>
-      </x:c>
+      <x:c r="A96" s="1"/>
+      <x:c r="B96" s="1"/>
+      <x:c r="C96" s="1"/>
+      <x:c r="D96" s="1"/>
     </x:row>
     <x:row r="97" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A97" s="1" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="B97" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C97" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D97" s="1">
-        <x:v>93320828</x:v>
-      </x:c>
+      <x:c r="A97" s="1"/>
+      <x:c r="B97" s="1"/>
+      <x:c r="C97" s="1"/>
+      <x:c r="D97" s="1"/>
     </x:row>
     <x:row r="98" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A98" s="1" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="B98" s="1" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="C98" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D98" s="1">
-        <x:v>110261078</x:v>
-      </x:c>
+      <x:c r="A98" s="1"/>
+      <x:c r="B98" s="1"/>
+      <x:c r="C98" s="1"/>
+      <x:c r="D98" s="1"/>
     </x:row>
     <x:row r="99" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A99" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B99" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C99" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D99" s="1">
-        <x:v>109671732</x:v>
-      </x:c>
+      <x:c r="A99" s="1"/>
+      <x:c r="B99" s="1"/>
+      <x:c r="C99" s="1"/>
+      <x:c r="D99" s="1"/>
     </x:row>
     <x:row r="100" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A100" s="1" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="B100" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C100" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D100" s="1">
-        <x:v>94130159</x:v>
-      </x:c>
+      <x:c r="A100" s="1"/>
+      <x:c r="B100" s="1"/>
+      <x:c r="C100" s="1"/>
+      <x:c r="D100" s="1"/>
     </x:row>
     <x:row r="101" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A101" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="B101" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C101" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D101" s="1">
-        <x:v>108349382</x:v>
-      </x:c>
+      <x:c r="A101" s="1"/>
+      <x:c r="B101" s="1"/>
+      <x:c r="C101" s="1"/>
+      <x:c r="D101" s="1"/>
     </x:row>
     <x:row r="102" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A102" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B102" s="1" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="C102" s="1" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="D102" s="1">
-        <x:v>113874892</x:v>
-      </x:c>
+      <x:c r="A102" s="1"/>
+      <x:c r="B102" s="1"/>
+      <x:c r="C102" s="1"/>
+      <x:c r="D102" s="1"/>
     </x:row>
     <x:row r="103" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A103" s="1" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="B103" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C103" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D103" s="1">
-        <x:v>87877800</x:v>
-      </x:c>
+      <x:c r="A103" s="1"/>
+      <x:c r="B103" s="1"/>
+      <x:c r="C103" s="1"/>
+      <x:c r="D103" s="1"/>
     </x:row>
     <x:row r="104" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A104" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B104" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C104" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D104" s="1">
-        <x:v>94772579</x:v>
-      </x:c>
+      <x:c r="A104" s="1"/>
+      <x:c r="B104" s="1"/>
+      <x:c r="C104" s="1"/>
+      <x:c r="D104" s="1"/>
     </x:row>
     <x:row r="105" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A105" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B105" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C105" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D105" s="1">
-        <x:v>109025838</x:v>
-      </x:c>
+      <x:c r="A105" s="1"/>
+      <x:c r="B105" s="1"/>
+      <x:c r="C105" s="1"/>
+      <x:c r="D105" s="1"/>
     </x:row>
     <x:row r="106" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A106" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B106" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C106" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D106" s="1">
-        <x:v>109332047</x:v>
-      </x:c>
+      <x:c r="A106" s="1"/>
+      <x:c r="B106" s="1"/>
+      <x:c r="C106" s="1"/>
+      <x:c r="D106" s="1"/>
     </x:row>
     <x:row r="107" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A107" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B107" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C107" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D107" s="1">
-        <x:v>108875764</x:v>
-      </x:c>
+      <x:c r="A107" s="1"/>
+      <x:c r="B107" s="1"/>
+      <x:c r="C107" s="1"/>
+      <x:c r="D107" s="1"/>
     </x:row>
     <x:row r="108" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A108" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="B108" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C108" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D108" s="1">
-        <x:v>89640867</x:v>
-      </x:c>
+      <x:c r="A108" s="1"/>
+      <x:c r="B108" s="1"/>
+      <x:c r="C108" s="1"/>
+      <x:c r="D108" s="1"/>
     </x:row>
     <x:row r="109" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A109" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B109" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C109" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D109" s="1">
-        <x:v>107381409</x:v>
-      </x:c>
+      <x:c r="A109" s="1"/>
+      <x:c r="B109" s="1"/>
+      <x:c r="C109" s="1"/>
+      <x:c r="D109" s="1"/>
     </x:row>
     <x:row r="110" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A110" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="B110" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C110" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D110" s="1">
-        <x:v>114338830</x:v>
-      </x:c>
+      <x:c r="A110" s="1"/>
+      <x:c r="B110" s="1"/>
+      <x:c r="C110" s="1"/>
+      <x:c r="D110" s="1"/>
     </x:row>
     <x:row r="111" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A111" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="B111" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C111" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D111" s="1">
-        <x:v>109591074</x:v>
-      </x:c>
+      <x:c r="A111" s="1"/>
+      <x:c r="B111" s="1"/>
+      <x:c r="C111" s="1"/>
+      <x:c r="D111" s="1"/>
     </x:row>
     <x:row r="112" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A112" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B112" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C112" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D112" s="1">
-        <x:v>81273534</x:v>
-      </x:c>
+      <x:c r="A112" s="1"/>
+      <x:c r="B112" s="1"/>
+      <x:c r="C112" s="1"/>
+      <x:c r="D112" s="1"/>
     </x:row>
     <x:row r="113" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A113" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B113" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C113" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D113" s="1">
-        <x:v>107200950</x:v>
-      </x:c>
+      <x:c r="A113" s="1"/>
+      <x:c r="B113" s="1"/>
+      <x:c r="C113" s="1"/>
+      <x:c r="D113" s="1"/>
     </x:row>
     <x:row r="114" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A114" s="1" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="B114" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C114" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D114" s="1">
-        <x:v>113446677</x:v>
-      </x:c>
+      <x:c r="A114" s="1"/>
+      <x:c r="B114" s="1"/>
+      <x:c r="C114" s="1"/>
+      <x:c r="D114" s="1"/>
     </x:row>
     <x:row r="115" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A115" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B115" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C115" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D115" s="1">
-        <x:v>94364915</x:v>
-      </x:c>
+      <x:c r="A115" s="1"/>
+      <x:c r="B115" s="1"/>
+      <x:c r="C115" s="1"/>
+      <x:c r="D115" s="1"/>
     </x:row>
     <x:row r="116" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A116" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B116" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C116" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D116" s="1">
-        <x:v>104211553</x:v>
-      </x:c>
+      <x:c r="A116" s="1"/>
+      <x:c r="B116" s="1"/>
+      <x:c r="C116" s="1"/>
+      <x:c r="D116" s="1"/>
     </x:row>
     <x:row r="117" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A117" s="1" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="B117" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C117" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D117" s="1">
-        <x:v>81414824</x:v>
-      </x:c>
+      <x:c r="A117" s="1"/>
+      <x:c r="B117" s="1"/>
+      <x:c r="C117" s="1"/>
+      <x:c r="D117" s="1"/>
     </x:row>
     <x:row r="118" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A118" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B118" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C118" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D118" s="1">
-        <x:v>85954972</x:v>
-      </x:c>
+      <x:c r="A118" s="1"/>
+      <x:c r="B118" s="1"/>
+      <x:c r="C118" s="1"/>
+      <x:c r="D118" s="1"/>
     </x:row>
     <x:row r="119" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A119" s="1" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="B119" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C119" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D119" s="1">
-        <x:v>110207750</x:v>
-      </x:c>
+      <x:c r="A119" s="1"/>
+      <x:c r="B119" s="1"/>
+      <x:c r="C119" s="1"/>
+      <x:c r="D119" s="1"/>
     </x:row>
     <x:row r="120" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A120" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B120" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C120" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D120" s="1">
-        <x:v>88053347</x:v>
-      </x:c>
+      <x:c r="A120" s="1"/>
+      <x:c r="B120" s="1"/>
+      <x:c r="C120" s="1"/>
+      <x:c r="D120" s="1"/>
     </x:row>
     <x:row r="121" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A121" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="A121" s="1"/>
       <x:c r="B121" s="1"/>
       <x:c r="C121" s="1"/>
       <x:c r="D121" s="1"/>
     </x:row>
     <x:row r="122" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A122" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="B122" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C122" s="1" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D122" s="1">
-        <x:v>108354408</x:v>
-      </x:c>
+      <x:c r="A122" s="1"/>
+      <x:c r="B122" s="1"/>
+      <x:c r="C122" s="1"/>
+      <x:c r="D122" s="1"/>
     </x:row>
     <x:row r="123" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A123" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B123" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C123" s="1" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D123" s="1">
-        <x:v>99239815</x:v>
-      </x:c>
+      <x:c r="A123" s="1"/>
+      <x:c r="B123" s="1"/>
+      <x:c r="C123" s="1"/>
+      <x:c r="D123" s="1"/>
     </x:row>
     <x:row r="124" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A124" s="1" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="B124" s="1" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="C124" s="1" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="D124" s="1">
-        <x:v>103893338</x:v>
-      </x:c>
+      <x:c r="A124" s="1"/>
+      <x:c r="B124" s="1"/>
+      <x:c r="C124" s="1"/>
+      <x:c r="D124" s="1"/>
     </x:row>
     <x:row r="125" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A125" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B125" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="C125" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="D125" s="1">
-        <x:v>98264485</x:v>
-      </x:c>
+      <x:c r="A125" s="1"/>
+      <x:c r="B125" s="1"/>
+      <x:c r="C125" s="1"/>
+      <x:c r="D125" s="1"/>
     </x:row>
     <x:row r="126" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A126" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
+      <x:c r="A126" s="1"/>
       <x:c r="B126" s="1"/>
       <x:c r="C126" s="1"/>
       <x:c r="D126" s="1"/>
     </x:row>
     <x:row r="127" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A127" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B127" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C127" s="1" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D127" s="1">
-        <x:v>112843406</x:v>
-      </x:c>
+      <x:c r="A127" s="1"/>
+      <x:c r="B127" s="1"/>
+      <x:c r="C127" s="1"/>
+      <x:c r="D127" s="1"/>
     </x:row>
     <x:row r="128" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A128" s="1" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="B128" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C128" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D128" s="1">
-        <x:v>87472188</x:v>
-      </x:c>
+      <x:c r="A128" s="1"/>
+      <x:c r="B128" s="1"/>
+      <x:c r="C128" s="1"/>
+      <x:c r="D128" s="1"/>
     </x:row>
     <x:row r="129" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A129" s="1" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="B129" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C129" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D129" s="1">
-        <x:v>108957869</x:v>
-      </x:c>
+      <x:c r="A129" s="1"/>
+      <x:c r="B129" s="1"/>
+      <x:c r="C129" s="1"/>
+      <x:c r="D129" s="1"/>
     </x:row>
     <x:row r="130" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A130" s="1" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B130" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C130" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D130" s="1">
-        <x:v>107210087</x:v>
-      </x:c>
+      <x:c r="A130" s="1"/>
+      <x:c r="B130" s="1"/>
+      <x:c r="C130" s="1"/>
+      <x:c r="D130" s="1"/>
     </x:row>
     <x:row r="131" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A131" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B131" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C131" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D131" s="1">
-        <x:v>111271388</x:v>
-      </x:c>
+      <x:c r="A131" s="1"/>
+      <x:c r="B131" s="1"/>
+      <x:c r="C131" s="1"/>
+      <x:c r="D131" s="1"/>
     </x:row>
     <x:row r="132" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A132" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B132" s="1" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="C132" s="1" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="D132" s="1">
-        <x:v>113842372</x:v>
-      </x:c>
+      <x:c r="A132" s="1"/>
+      <x:c r="B132" s="1"/>
+      <x:c r="C132" s="1"/>
+      <x:c r="D132" s="1"/>
     </x:row>
     <x:row r="133" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A133" s="1" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="B133" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C133" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D133" s="1">
-        <x:v>106325230</x:v>
-      </x:c>
+      <x:c r="A133" s="1"/>
+      <x:c r="B133" s="1"/>
+      <x:c r="C133" s="1"/>
+      <x:c r="D133" s="1"/>
     </x:row>
     <x:row r="134" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A134" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="B134" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="C134" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D134" s="1">
-        <x:v>106407953</x:v>
-      </x:c>
+      <x:c r="A134" s="1"/>
+      <x:c r="B134" s="1"/>
+      <x:c r="C134" s="1"/>
+      <x:c r="D134" s="1"/>
     </x:row>
     <x:row r="135" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A135" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B135" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C135" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D135" s="1">
-        <x:v>80395620</x:v>
-      </x:c>
+      <x:c r="A135" s="1"/>
+      <x:c r="B135" s="1"/>
+      <x:c r="C135" s="1"/>
+      <x:c r="D135" s="1"/>
     </x:row>
     <x:row r="136" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A136" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
+      <x:c r="A136" s="1"/>
       <x:c r="B136" s="1"/>
       <x:c r="C136" s="1"/>
       <x:c r="D136" s="1"/>
     </x:row>
     <x:row r="137" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A137" s="1" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="B137" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C137" s="1" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D137" s="1">
-        <x:v>108035343</x:v>
-      </x:c>
+      <x:c r="A137" s="1"/>
+      <x:c r="B137" s="1"/>
+      <x:c r="C137" s="1"/>
+      <x:c r="D137" s="1"/>
     </x:row>
     <x:row r="138" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A138" s="1" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="B138" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C138" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D138" s="1">
-        <x:v>109750471</x:v>
-      </x:c>
+      <x:c r="A138" s="1"/>
+      <x:c r="B138" s="1"/>
+      <x:c r="C138" s="1"/>
+      <x:c r="D138" s="1"/>
     </x:row>
     <x:row r="139" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A139" s="1" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="B139" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C139" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="D139" s="1">
-        <x:v>109252808</x:v>
-      </x:c>
+      <x:c r="A139" s="1"/>
+      <x:c r="B139" s="1"/>
+      <x:c r="C139" s="1"/>
+      <x:c r="D139" s="1"/>
     </x:row>
     <x:row r="140" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A140" s="1" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="B140" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C140" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D140" s="1">
-        <x:v>113976523</x:v>
-      </x:c>
+      <x:c r="A140" s="1"/>
+      <x:c r="B140" s="1"/>
+      <x:c r="C140" s="1"/>
+      <x:c r="D140" s="1"/>
     </x:row>
     <x:row r="141" spans="1:4" ht="15.75" customHeight="1">
-      <x:c r="A141" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B141" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="C141" s="1" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="D141" s="1">
-        <x:v>113377051</x:v>
-      </x:c>
+      <x:c r="A141" s="1"/>
+      <x:c r="B141" s="1"/>
+      <x:c r="C141" s="1"/>
+      <x:c r="D141" s="1"/>
     </x:row>
     <x:row r="142" spans="1:4" ht="15.75" customHeight="1">
       <x:c r="A142" s="1"/>
@@ -3951,6 +3170,26 @@
     <x:hyperlink ref="E39:E39" r:id="rId38"/>
     <x:hyperlink ref="E40:E40" r:id="rId39"/>
     <x:hyperlink ref="E41:E41" r:id="rId40"/>
+    <x:hyperlink ref="E42:E42" r:id="rId41"/>
+    <x:hyperlink ref="E43:E43" r:id="rId42"/>
+    <x:hyperlink ref="E44:E44" r:id="rId43"/>
+    <x:hyperlink ref="E45:E45" r:id="rId44"/>
+    <x:hyperlink ref="E46:E46" r:id="rId45"/>
+    <x:hyperlink ref="E47:E47" r:id="rId46"/>
+    <x:hyperlink ref="E48:E48" r:id="rId47"/>
+    <x:hyperlink ref="E49:E49" r:id="rId48"/>
+    <x:hyperlink ref="E50:E50" r:id="rId49"/>
+    <x:hyperlink ref="E51:E51" r:id="rId50"/>
+    <x:hyperlink ref="E52:E52" r:id="rId51"/>
+    <x:hyperlink ref="E53:E53" r:id="rId52"/>
+    <x:hyperlink ref="E54:E54" r:id="rId53"/>
+    <x:hyperlink ref="E55:E55" r:id="rId54"/>
+    <x:hyperlink ref="E56:E56" r:id="rId55"/>
+    <x:hyperlink ref="E57:E57" r:id="rId56"/>
+    <x:hyperlink ref="E58:E58" r:id="rId57"/>
+    <x:hyperlink ref="E59:E59" r:id="rId58"/>
+    <x:hyperlink ref="E60:E60" r:id="rId59"/>
+    <x:hyperlink ref="E61:E61" r:id="rId60"/>
   </x:hyperlinks>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0" footer="0"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
